--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Development/thanhtunguet/jira-reporter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074A6718-A5FC-F24E-8491-6301038AED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA3BD0-6214-6748-A0F8-1758A9E294F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="50080" windowHeight="28300" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>stt</t>
   </si>
@@ -117,19 +117,192 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -441,14 +614,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D443324E-66DD-264F-B3B5-341CB33C81F8}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
     <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -475,11 +649,11 @@
       <c r="B2" s="3">
         <v>44958</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>WEEKNUM(B2)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -492,28 +666,28 @@
         <f>WORKDAY(B2,1)</f>
         <v>44959</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">WEEKNUM(B3)</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C26" si="0">WEEKNUM(B3)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A64" si="1">IF(A3="STT",1,A3+1)</f>
+        <f t="shared" ref="A4:A11" si="1">IF(A3="STT",1,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B64" si="2">WORKDAY(B3,1)</f>
+        <f t="shared" ref="B4:B26" si="2">WORKDAY(B3,1)</f>
         <v>44960</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -526,11 +700,11 @@
         <f t="shared" si="2"/>
         <v>44963</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -543,11 +717,11 @@
         <f t="shared" si="2"/>
         <v>44964</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -560,11 +734,11 @@
         <f t="shared" si="2"/>
         <v>44965</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -577,11 +751,11 @@
         <f t="shared" si="2"/>
         <v>44966</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -594,11 +768,11 @@
         <f t="shared" si="2"/>
         <v>44967</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -611,11 +785,11 @@
         <f t="shared" si="2"/>
         <v>44970</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -628,40 +802,271 @@
         <f t="shared" si="2"/>
         <v>44971</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="4"/>
+      <c r="A12" s="2">
+        <f t="shared" ref="A12:A26" si="3">IF(A11="stt",1,A11+1)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>44972</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="4"/>
+      <c r="A13" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>44973</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="4"/>
+      <c r="A14" s="2">
+        <f t="shared" ref="A14:A26" si="4">IF(A13="STT",1,A13+1)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>44974</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>44977</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="5"/>
+      <c r="A16" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>44978</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="2"/>
+        <v>44979</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>44980</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>44981</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="2"/>
+        <v>44984</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="2"/>
+        <v>44985</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22:A26" si="5">IF(A21="stt",1,A21+1)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="2"/>
+        <v>44986</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="2"/>
+        <v>44987</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>44988</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>44991</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>44992</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
     </row>
     <row r="45" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
@@ -674,11 +1079,11 @@
     </row>
     <row r="48" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
@@ -726,10 +1131,18 @@
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="D65"/>
+      <c r="B65" s="7"/>
+      <c r="D65" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D26">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>MOD($C1,2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>MOD($C1,2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Development/thanhtunguet/jira-reporter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA3BD0-6214-6748-A0F8-1758A9E294F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C316A36-6972-0346-AB8A-60B0E97371EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="50080" windowHeight="28300" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="JiraTasks" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,21 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
-    <t>stt</t>
+    <t>Mô tả task</t>
   </si>
   <si>
-    <t>date</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>weekNum</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>task</t>
+    <t>WeekNumber</t>
   </si>
   <si>
-    <t>Mô tả task</t>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Chú ý: các cột đã chứa sẵn công thức</t>
+  </si>
+  <si>
+    <t>Chỉ cần kéo công thức xuống dòng dưới để áp dụng</t>
+  </si>
+  <si>
+    <t>Hãy loại bỏ các dòng chứa ngày mà bạn không muốn khai.</t>
+  </si>
+  <si>
+    <t>Mô tả của task cần nằm trên 01 dòng duy nhất.</t>
+  </si>
+  <si>
+    <t>Nếu sai có thể dẫn tới lỗi.</t>
   </si>
 </sst>
 </file>
@@ -117,27 +132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -149,6 +156,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -193,19 +207,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -223,9 +224,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -243,59 +241,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -612,36 +557,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D443324E-66DD-264F-B3B5-341CB33C81F8}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>IF(A1="stt",1,A1+1)</f>
         <v>1</v>
@@ -649,15 +593,18 @@
       <c r="B2" s="3">
         <v>44958</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <f>WEEKNUM(B2)</f>
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>IF(A2="stt",1,A2+1)</f>
         <v>2</v>
@@ -666,233 +613,245 @@
         <f>WORKDAY(B2,1)</f>
         <v>44959</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C26" si="0">WEEKNUM(B3)</f>
+      <c r="C3">
+        <f>WEEKNUM(B3)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A11" si="0">IF(A3="STT",1,A3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B26" si="1">WORKDAY(B3,1)</f>
+        <v>44960</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C23" si="2">WEEKNUM(B4)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="1">IF(A3="STT",1,A3+1)</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B26" si="2">WORKDAY(B3,1)</f>
-        <v>44960</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>44963</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" si="2"/>
-        <v>44963</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>44964</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="2"/>
-        <v>44964</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>44965</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="2"/>
-        <v>44965</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="2"/>
-        <v>44966</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="2"/>
-        <v>44967</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="2"/>
-        <v>44970</v>
-      </c>
-      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>44966</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>44967</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>44970</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44971</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
+      <c r="C11">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f t="shared" ref="A12:A26" si="3">IF(A11="stt",1,A11+1)</f>
+        <f t="shared" ref="A12:A13" si="3">IF(A11="stt",1,A11+1)</f>
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44972</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
+      <c r="C12">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44973</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
+      <c r="C13">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f t="shared" ref="A14:A26" si="4">IF(A13="STT",1,A13+1)</f>
+        <f t="shared" ref="A14:A21" si="4">IF(A13="STT",1,A13+1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44974</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
+      <c r="C14">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44977</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
+      <c r="C15">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44978</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
+      <c r="C16">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -901,15 +860,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44979</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
+      <c r="C17">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>4</v>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,15 +877,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44980</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
+      <c r="C18">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -935,15 +894,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44981</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
+      <c r="C19">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,15 +911,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44984</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
+      <c r="C20">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,15 +928,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44985</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
+      <c r="C21">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>4</v>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -986,15 +945,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44986</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
+      <c r="C22">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,144 +962,93 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44987</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
+      <c r="C23">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <f t="shared" si="2"/>
-        <v>44988</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <f t="shared" si="2"/>
-        <v>44991</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>4</v>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <f t="shared" si="2"/>
-        <v>44992</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="6"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="42" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="3:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" ht="14" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="3:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="3:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="7"/>
-      <c r="D65" s="4"/>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="6"/>
+      <c r="D62"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D26">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MOD($C1,2)=0</formula>
+  <conditionalFormatting sqref="A2:D23">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>MOD($C2,2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>MOD($C1,2)=1</formula>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>MOD($C2,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Development/thanhtunguet/jira-reporter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Development/thanhtunguet/fis-jira-reporter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C316A36-6972-0346-AB8A-60B0E97371EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B926534-CEF5-FE4A-92A9-C06D8F59FD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17780" activeTab="1" xr2:uid="{6F88B625-4819-1F4D-90B8-DACCF39413AD}"/>
   </bookViews>
   <sheets>
     <sheet name="JiraTasks" sheetId="2" r:id="rId1"/>
+    <sheet name="HuongDan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Mô tả task</t>
   </si>
@@ -53,19 +54,22 @@
     <t>Task Description</t>
   </si>
   <si>
-    <t>Chú ý: các cột đã chứa sẵn công thức</t>
+    <t>Cách thực hiện</t>
   </si>
   <si>
-    <t>Chỉ cần kéo công thức xuống dòng dưới để áp dụng</t>
+    <t>Nhập ngày bắt đầu của tháng, các ngày làm việc tiếp theo sẽ được tự động tính</t>
   </si>
   <si>
-    <t>Hãy loại bỏ các dòng chứa ngày mà bạn không muốn khai.</t>
+    <t>Nhập mô tả cho các task theo ngày</t>
   </si>
   <si>
-    <t>Mô tả của task cần nằm trên 01 dòng duy nhất.</t>
+    <t>Bấm Ctrl + A</t>
   </si>
   <si>
-    <t>Nếu sai có thể dẫn tới lỗi.</t>
+    <t>Quay lại form khai task, bấm Ctrl + V để paste toàn bộ task vào</t>
+  </si>
+  <si>
+    <t>Hãy kiểm tra lại những ngày nằm ngoài khoảng từ &lt;đầu tháng&gt; tới &lt;ngày hiện tại&gt;</t>
   </si>
 </sst>
 </file>
@@ -75,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -140,96 +152,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -557,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D443324E-66DD-264F-B3B5-341CB33C81F8}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +500,7 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>IF(A1="stt",1,A1+1)</f>
         <v>1</v>
@@ -600,11 +529,8 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>IF(A2="stt",1,A2+1)</f>
         <v>2</v>
@@ -620,17 +546,14 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A11" si="0">IF(A3="STT",1,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B26" si="1">WORKDAY(B3,1)</f>
+        <f t="shared" ref="B4:B23" si="1">WORKDAY(B3,1)</f>
         <v>44960</v>
       </c>
       <c r="C4">
@@ -640,11 +563,8 @@
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -660,11 +580,8 @@
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -680,11 +597,8 @@
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -701,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -718,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -735,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -752,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -769,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A13" si="3">IF(A11="stt",1,A11+1)</f>
         <v>11</v>
@@ -786,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -803,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A21" si="4">IF(A13="STT",1,A13+1)</f>
         <v>13</v>
@@ -820,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -837,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -941,7 +855,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <f t="shared" ref="A22:A26" si="5">IF(A21="stt",1,A21+1)</f>
+        <f t="shared" ref="A22:A23" si="5">IF(A21="stt",1,A21+1)</f>
         <v>21</v>
       </c>
       <c r="B22" s="3">
@@ -1053,4 +967,74 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016B2F05-8D91-4E47-B4DC-8F382A4B1907}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">Mô tả task</t>
+    <t xml:space="preserve">Mô tả task ở đây, đã hỗ trợ nhiều dòng</t>
   </si>
   <si>
     <t xml:space="preserve">STT</t>
@@ -68,7 +68,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -94,31 +94,38 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -185,23 +192,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,22 +308,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -330,449 +337,386 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <f aca="false">IF(A1="index",1,A1+1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <f aca="false">WEEKNUM(B2,1)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <f aca="false">IF(A2="stt",1,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B2,1)</f>
-        <v>44959</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <f aca="false">WEEKNUM(B3,1)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <f aca="false">IF(A3="STT",1,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B3,1)</f>
-        <v>44960</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <f aca="false">WEEKNUM(B4,1)</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <f aca="false">IF(A4="STT",1,A4+1)</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B4,1)</f>
-        <v>44963</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <f aca="false">WEEKNUM(B5,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <f aca="false">IF(A5="STT",1,A5+1)</f>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B5,1)</f>
-        <v>44964</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>45237</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <f aca="false">WEEKNUM(B6,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <f aca="false">IF(A6="STT",1,A6+1)</f>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B6,1)</f>
-        <v>44965</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <f aca="false">WEEKNUM(B7,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <f aca="false">IF(A7="STT",1,A7+1)</f>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B7,1)</f>
-        <v>44966</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <f aca="false">WEEKNUM(B8,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <f aca="false">IF(A8="STT",1,A8+1)</f>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B8,1)</f>
-        <v>44967</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <f aca="false">WEEKNUM(B9,1)</f>
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <f aca="false">IF(A9="STT",1,A9+1)</f>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B9,1)</f>
-        <v>44970</v>
-      </c>
-      <c r="C10" s="5" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <f aca="false">WEEKNUM(B10,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <f aca="false">IF(A10="STT",1,A10+1)</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B10,1)</f>
-        <v>44971</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <f aca="false">WEEKNUM(B11,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <f aca="false">IF(A11="stt",1,A11+1)</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B11,1)</f>
-        <v>44972</v>
-      </c>
-      <c r="C12" s="5" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <f aca="false">WEEKNUM(B12,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <f aca="false">IF(A12="stt",1,A12+1)</f>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B12,1)</f>
-        <v>44973</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <f aca="false">WEEKNUM(B13,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <f aca="false">IF(A13="STT",1,A13+1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B13,1)</f>
-        <v>44974</v>
-      </c>
-      <c r="C14" s="5" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <f aca="false">WEEKNUM(B14,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">IF(A14="STT",1,A14+1)</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B14,1)</f>
-        <v>44977</v>
-      </c>
-      <c r="C15" s="5" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <f aca="false">WEEKNUM(B15,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <f aca="false">IF(A15="STT",1,A15+1)</f>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B15,1)</f>
-        <v>44978</v>
-      </c>
-      <c r="C16" s="5" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <f aca="false">WEEKNUM(B16,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <f aca="false">IF(A16="STT",1,A16+1)</f>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B16,1)</f>
-        <v>44979</v>
-      </c>
-      <c r="C17" s="5" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <f aca="false">WEEKNUM(B17,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <f aca="false">IF(A17="STT",1,A17+1)</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B17,1)</f>
-        <v>44980</v>
-      </c>
-      <c r="C18" s="5" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <f aca="false">WEEKNUM(B18,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <f aca="false">IF(A18="STT",1,A18+1)</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B18,1)</f>
-        <v>44981</v>
-      </c>
-      <c r="C19" s="5" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <f aca="false">WEEKNUM(B19,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <f aca="false">IF(A19="STT",1,A19+1)</f>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B19,1)</f>
-        <v>44984</v>
-      </c>
-      <c r="C20" s="5" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C20" s="4" t="n">
         <f aca="false">WEEKNUM(B20,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <f aca="false">IF(A20="STT",1,A20+1)</f>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B20,1)</f>
-        <v>44985</v>
-      </c>
-      <c r="C21" s="5" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <f aca="false">WEEKNUM(B21,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <f aca="false">IF(A21="stt",1,A21+1)</f>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B21,1)</f>
-        <v>44986</v>
-      </c>
-      <c r="C22" s="5" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <f aca="false">WEEKNUM(B22,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <f aca="false">IF(A22="stt",1,A22+1)</f>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getWorkday(B22,1)</f>
-        <v>44987</v>
-      </c>
-      <c r="C23" s="5" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <f aca="false">WEEKNUM(B23,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D23">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>MOD($C2,2)=0</formula>
+      <formula>MOD($C5,2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>MOD($C2,2)=1</formula>
+      <formula>MOD($C5,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -790,66 +734,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="68.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="10.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="6" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">Mô tả task ở đây, đã hỗ trợ nhiều dòng</t>
+    <t xml:space="preserve">Mô tả task, hỗ trợ nhiều dòng, tối đa 250 ký tự</t>
   </si>
   <si>
     <t xml:space="preserve">STT</t>
@@ -311,7 +311,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/jira.excel.template.xlsx
+++ b/assets/jira.excel.template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungpt/Development/thanhtunguet/fis-jira-reporter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6215CBF3-A460-7640-84C6-9F618057F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE5B13-71A7-EA4D-8FDE-5514D76A87FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35100" yWindow="-7740" windowWidth="46340" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
